--- a/doc/游戏地图数据/地图坐标系.xlsx
+++ b/doc/游戏地图数据/地图坐标系.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -564,12 +564,12 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -578,18 +578,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -598,101 +598,101 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -709,170 +709,170 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>-2</v>
       </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -898,61 +898,61 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -969,42 +969,42 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>-3</v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1029,32 +1029,32 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>-1</v>
       </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
@@ -1068,53 +1068,53 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
       </c>
       <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
@@ -1124,217 +1124,217 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>-2</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>-2</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B38" s="1">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>-3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
@@ -1348,20 +1348,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="A42">
+        <v>-1</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1369,150 +1369,150 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
         <v>-1</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="E45" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>-1</v>
-      </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1524,52 +1524,52 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -1578,23 +1578,23 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="D54" t="s">
@@ -1608,208 +1608,208 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="E55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>28</v>
       </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>7</v>
-      </c>
-      <c r="B58">
+      <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
         <v>29</v>
       </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>-2</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -1824,391 +1824,394 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
         <v>-2</v>
       </c>
-      <c r="B68">
+      <c r="B71" s="1">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
         <v>6</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>0</v>
-      </c>
-      <c r="B69">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>0</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71">
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B77" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>-2</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>6</v>
-      </c>
-      <c r="B74">
-        <v>8</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="C77" s="1">
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="A78" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>4</v>
-      </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
+      <c r="A79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B79" s="1">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
         <v>-1</v>
       </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
+      <c r="C80" s="1">
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
+        <v>-1</v>
+      </c>
+      <c r="B81">
         <v>6</v>
       </c>
-      <c r="B81">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
         <v>7</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>23</v>
-      </c>
       <c r="E81" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C84"/>
+  <sortState ref="A2:F84">
+    <sortCondition descending="1" ref="F1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/游戏地图数据/地图坐标系.xlsx
+++ b/doc/游戏地图数据/地图坐标系.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>-2</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>0</v>
       </c>
@@ -2489,9 +2489,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G84">
-    <filterColumn colId="5">
+    <filterColumn colId="6">
       <filters>
-        <filter val="STAIRS"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
